--- a/data/Data_2022.xlsx
+++ b/data/Data_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauthierboddaert/Desktop/backend-MSPR-big-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C4E03-9A42-C745-A21B-4BA7F0C7DE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE601043-DE07-48DA-B5DA-DE41B7C73B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="662">
   <si>
     <r>
       <rPr>
@@ -6612,6 +6612,9 @@
   </si>
   <si>
     <t>Parti Politique</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
 </sst>
 </file>
@@ -6619,13 +6622,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6653,6 +6656,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -6701,9 +6709,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6719,44 +6727,41 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7066,22 +7071,21 @@
   <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7091,7 +7095,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="1" t="s">
         <v>660</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -7107,7 +7111,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>59001</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>0.1241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>59002</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>0.27679999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>59003</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>0.1061</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>59004</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E5" s="5">
         <v>37.799999999999997</v>
@@ -7211,7 +7215,7 @@
         <v>0.22869999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>59005</v>
       </c>
@@ -7237,7 +7241,7 @@
         <v>0.27210000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>59006</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>0.1447</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>59007</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>0.41149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>59008</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>0.62450000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>59009</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>59010</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>59011</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>0.41420000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>59012</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>59013</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E14" s="3">
         <v>34.81</v>
@@ -7445,7 +7449,7 @@
         <v>0.47589999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>59014</v>
       </c>
@@ -7471,7 +7475,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>59015</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>0.29360000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>59016</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>0.29620000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>59017</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>0.91010000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>59018</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>0.1928</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>59019</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>0.3483</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>59021</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>0.2296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>59022</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E22" s="3">
         <v>32.85</v>
@@ -7653,7 +7657,7 @@
         <v>0.44169999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>59023</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>59024</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>0.47020000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>59025</v>
       </c>
@@ -7716,7 +7720,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E25" s="3">
         <v>35.880000000000003</v>
@@ -7731,7 +7735,7 @@
         <v>0.32950000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>59026</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>0.28310000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>59027</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E27" s="5">
         <v>34.4</v>
@@ -7783,7 +7787,7 @@
         <v>0.26640000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>59028</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>0.34060000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>59029</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E29" s="3">
         <v>34.85</v>
@@ -7835,7 +7839,7 @@
         <v>0.29409999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>59031</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>59032</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>59033</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>0.6704</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>59034</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E33" s="3">
         <v>41.56</v>
@@ -7939,7 +7943,7 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>59035</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>0.23930000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>59036</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>0.65329999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>59037</v>
       </c>
@@ -8017,7 +8021,7 @@
         <v>0.2999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>59038</v>
       </c>
@@ -8043,7 +8047,7 @@
         <v>0.44750000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>59039</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>0.32169999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>59041</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>59042</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E40" s="3">
         <v>37.68</v>
@@ -8121,7 +8125,7 @@
         <v>0.24460000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>59043</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>0.5776</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>59044</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E42" s="3">
         <v>38.049999999999997</v>
@@ -8173,7 +8177,7 @@
         <v>0.44190000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>59045</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>59046</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>59047</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>0.28720000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>59048</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>0.19120000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>59049</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>0.15620000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>59050</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>59051</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>0.5262</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>59052</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>0.36709999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>59053</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>0.29949999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>59054</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>59055</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>59056</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E54" s="3">
         <v>43.78</v>
@@ -8485,7 +8489,7 @@
         <v>0.44330000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>59057</v>
       </c>
@@ -8511,7 +8515,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>59058</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>0.28089999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>59059</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>0.29880000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>59060</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>0.15529999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>59061</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>0.30609999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59062</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>0.34310000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59063</v>
       </c>
@@ -8667,7 +8671,7 @@
         <v>0.30690000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59064</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>0.28610000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>59065</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>0.31040000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59066</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>59067</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>59068</v>
       </c>
@@ -8797,7 +8801,7 @@
         <v>0.37480000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>59069</v>
       </c>
@@ -8823,7 +8827,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>59070</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>0.13370000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>59071</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E69" s="3">
         <v>38.049999999999997</v>
@@ -8875,7 +8879,7 @@
         <v>0.2072</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>59072</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E70" s="3">
         <v>34.56</v>
@@ -8901,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>59073</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E71" s="3">
         <v>30.43</v>
@@ -8927,7 +8931,7 @@
         <v>0.23669999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>59074</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>0.3327</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>59075</v>
       </c>
@@ -8979,7 +8983,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>59076</v>
       </c>
@@ -9005,7 +9009,7 @@
         <v>0.1913</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>59077</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>0.21049999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>59078</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>0.3705</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>59079</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>0.63890000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>59080</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>0.33050000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>59081</v>
       </c>
@@ -9135,7 +9139,7 @@
         <v>0.2049</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>59082</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>0.2142</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>59083</v>
       </c>
@@ -9187,7 +9191,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>59084</v>
       </c>
@@ -9213,7 +9217,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>59085</v>
       </c>
@@ -9239,7 +9243,7 @@
         <v>0.23180000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>59086</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>0.21010000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>59087</v>
       </c>
@@ -9291,7 +9295,7 @@
         <v>0.15140000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>59088</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E86" s="3">
         <v>43.48</v>
@@ -9317,7 +9321,7 @@
         <v>0.34910000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>59089</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>0.3029</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>59090</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E88" s="3">
         <v>50.78</v>
@@ -9369,7 +9373,7 @@
         <v>0.68079999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>59091</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E89" s="3">
         <v>34.25</v>
@@ -9395,7 +9399,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>59092</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>0.33179999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>59093</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E91" s="3">
         <v>37.97</v>
@@ -9447,7 +9451,7 @@
         <v>0.17530000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>59094</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>0.69379999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>59096</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E93" s="3">
         <v>39.22</v>
@@ -9499,7 +9503,7 @@
         <v>0.24129999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>59097</v>
       </c>
@@ -9525,7 +9529,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>59098</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E95" s="3">
         <v>35.840000000000003</v>
@@ -9551,7 +9555,7 @@
         <v>0.62639999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>59099</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>0.32819999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>59100</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E97" s="5">
         <v>31.1</v>
@@ -9603,7 +9607,7 @@
         <v>0.3478</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>59101</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>0.1308</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>59102</v>
       </c>
@@ -9655,7 +9659,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>59103</v>
       </c>
@@ -9681,7 +9685,7 @@
         <v>0.2452</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>59104</v>
       </c>
@@ -9707,7 +9711,7 @@
         <v>0.58340000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>59105</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E102" s="3">
         <v>31.56</v>
@@ -9733,7 +9737,7 @@
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>59106</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E103" s="3">
         <v>45.38</v>
@@ -9759,7 +9763,7 @@
         <v>0.4894</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>59107</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>0.39279999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>59108</v>
       </c>
@@ -9811,7 +9815,7 @@
         <v>0.2392</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>59109</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E106" s="3">
         <v>28.87</v>
@@ -9837,7 +9841,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>59110</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>0.16120000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>59111</v>
       </c>
@@ -9889,7 +9893,7 @@
         <v>0.21260000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>59112</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>0.4284</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>59113</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>0.63339999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>59114</v>
       </c>
@@ -9967,7 +9971,7 @@
         <v>0.30049999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>59115</v>
       </c>
@@ -9993,7 +9997,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>59116</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E113" s="3">
         <v>35.92</v>
@@ -10019,7 +10023,7 @@
         <v>0.23050000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>59117</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>0.21920000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>59118</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>0.37059999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>59119</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>0.19989999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>59120</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>0.2487</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>59121</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>59122</v>
       </c>
@@ -10175,7 +10179,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>59123</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E120" s="5">
         <v>34.4</v>
@@ -10201,7 +10205,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>59124</v>
       </c>
@@ -10212,7 +10216,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E121" s="3">
         <v>40.520000000000003</v>
@@ -10227,7 +10231,7 @@
         <v>0.33090000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>59125</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>0.17610000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>59126</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>0.33110000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>59127</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E124" s="3">
         <v>27.18</v>
@@ -10305,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>59128</v>
       </c>
@@ -10316,7 +10320,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E125" s="3">
         <v>38.19</v>
@@ -10331,7 +10335,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>59129</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E126" s="3">
         <v>36.47</v>
@@ -10357,7 +10361,7 @@
         <v>0.37169999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>59130</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>0.1074</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>59131</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>0.75680000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>59132</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>59133</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E130" s="3">
         <v>33.57</v>
@@ -10461,7 +10465,7 @@
         <v>0.29380000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>59134</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>0.34789999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>59135</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E132" s="3">
         <v>31.01</v>
@@ -10513,7 +10517,7 @@
         <v>0.3634</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>59136</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>0.6653</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>59137</v>
       </c>
@@ -10565,7 +10569,7 @@
         <v>0.3871</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>59138</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>0.2026</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>59139</v>
       </c>
@@ -10617,7 +10621,7 @@
         <v>0.48909999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>59140</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>0.1731</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>59141</v>
       </c>
@@ -10669,7 +10673,7 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>59142</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>59143</v>
       </c>
@@ -10706,7 +10710,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E140" s="3">
         <v>33.07</v>
@@ -10721,7 +10725,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>59144</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>0.43880000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>59145</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E142" s="3">
         <v>37.36</v>
@@ -10773,7 +10777,7 @@
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>59146</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E143" s="3">
         <v>42.12</v>
@@ -10799,7 +10803,7 @@
         <v>0.47720000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>59147</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E144" s="3">
         <v>28.95</v>
@@ -10825,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>59148</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>0.29139999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>59149</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>0.30790000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>59150</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E147" s="3">
         <v>41.84</v>
@@ -10903,7 +10907,7 @@
         <v>0.39229999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>59151</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>59152</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>59153</v>
       </c>
@@ -10981,7 +10985,7 @@
         <v>1.1131</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>59155</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>0.72070000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>59156</v>
       </c>
@@ -11033,7 +11037,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>59157</v>
       </c>
@@ -11059,7 +11063,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>59158</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E154" s="3">
         <v>31.93</v>
@@ -11085,7 +11089,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>59159</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>0.44719999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>59160</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>0.44359999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>59161</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>0.1605</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>59162</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E158" s="5">
         <v>31.4</v>
@@ -11189,7 +11193,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>59163</v>
       </c>
@@ -11200,7 +11204,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E159" s="3">
         <v>32.51</v>
@@ -11215,7 +11219,7 @@
         <v>0.9244</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>59164</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>0.1709</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>59165</v>
       </c>
@@ -11267,7 +11271,7 @@
         <v>0.2135</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>59166</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E162" s="5">
         <v>33.5</v>
@@ -11293,7 +11297,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>59167</v>
       </c>
@@ -11319,7 +11323,7 @@
         <v>0.1762</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>59168</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E164" s="3">
         <v>37.11</v>
@@ -11345,7 +11349,7 @@
         <v>0.54710000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>59169</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>0.1729</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>59170</v>
       </c>
@@ -11397,7 +11401,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>59171</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E167" s="3">
         <v>51.72</v>
@@ -11423,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>59172</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>0.62219999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>59173</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E169" s="3">
         <v>35.74</v>
@@ -11475,7 +11479,7 @@
         <v>0.45760000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>59174</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>0.2747</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>59175</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E171" s="3">
         <v>33.68</v>
@@ -11527,7 +11531,7 @@
         <v>0.4173</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>59176</v>
       </c>
@@ -11553,7 +11557,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>59177</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>0.37319999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>59178</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>0.6502</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>59179</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>59180</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E176" s="3">
         <v>32.64</v>
@@ -11657,7 +11661,7 @@
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>59181</v>
       </c>
@@ -11683,7 +11687,7 @@
         <v>0.20319999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>59182</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>0.14419999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>59183</v>
       </c>
@@ -11735,7 +11739,7 @@
         <v>0.80630000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>59184</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>0.1084</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>59185</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>0.4471</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>59186</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>59187</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E183" s="3">
         <v>32.26</v>
@@ -11839,7 +11843,7 @@
         <v>0.36780000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>59188</v>
       </c>
@@ -11865,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>59189</v>
       </c>
@@ -11891,7 +11895,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>59190</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>0.29020000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>59191</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>59192</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>59193</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E189" s="3">
         <v>34.06</v>
@@ -11995,7 +11999,7 @@
         <v>0.55520000000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>59194</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>0.38619999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>59195</v>
       </c>
@@ -12032,7 +12036,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E191" s="3">
         <v>42.89</v>
@@ -12047,7 +12051,7 @@
         <v>0.3896</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>59196</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E192" s="3">
         <v>43.38</v>
@@ -12073,7 +12077,7 @@
         <v>0.33589999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>59197</v>
       </c>
@@ -12084,7 +12088,7 @@
         <v>9</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E193" s="3">
         <v>35.96</v>
@@ -12099,7 +12103,7 @@
         <v>0.33950000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>59198</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>0.1575</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>59199</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>9</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E195" s="3">
         <v>31.95</v>
@@ -12151,7 +12155,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>59200</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>0.25609999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>59201</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>9</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E197" s="3">
         <v>40.53</v>
@@ -12203,7 +12207,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>59202</v>
       </c>
@@ -12214,7 +12218,7 @@
         <v>9</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E198" s="3">
         <v>31.33</v>
@@ -12229,7 +12233,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>59203</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>0.3528</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>59204</v>
       </c>
@@ -12281,7 +12285,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>59205</v>
       </c>
@@ -12307,7 +12311,7 @@
         <v>0.56130000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>59206</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>0.59030000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>59207</v>
       </c>
@@ -12359,7 +12363,7 @@
         <v>0.66930000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>59208</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E204" s="3">
         <v>44.35</v>
@@ -12385,7 +12389,7 @@
         <v>0.37940000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>59209</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>0.24030000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>59210</v>
       </c>
@@ -12422,7 +12426,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E206" s="5">
         <v>31.5</v>
@@ -12437,7 +12441,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>59211</v>
       </c>
@@ -12463,7 +12467,7 @@
         <v>0.58909999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>59212</v>
       </c>
@@ -12489,7 +12493,7 @@
         <v>0.4158</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>59213</v>
       </c>
@@ -12515,7 +12519,7 @@
         <v>0.31659999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>59214</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>0.20749999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>59215</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E211" s="3">
         <v>33.659999999999997</v>
@@ -12567,7 +12571,7 @@
         <v>0.42730000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>59216</v>
       </c>
@@ -12593,7 +12597,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>59217</v>
       </c>
@@ -12619,7 +12623,7 @@
         <v>0.18029999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>59218</v>
       </c>
@@ -12645,7 +12649,7 @@
         <v>0.1749</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>59219</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>59220</v>
       </c>
@@ -12697,7 +12701,7 @@
         <v>0.71589999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>59221</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E217" s="3">
         <v>33.92</v>
@@ -12723,7 +12727,7 @@
         <v>0.26879999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>59222</v>
       </c>
@@ -12734,7 +12738,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E218" s="3">
         <v>33.590000000000003</v>
@@ -12749,7 +12753,7 @@
         <v>0.39069999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>59223</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>0.2402</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>59224</v>
       </c>
@@ -12801,7 +12805,7 @@
         <v>0.31259999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>59225</v>
       </c>
@@ -12827,7 +12831,7 @@
         <v>0.3463</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>59226</v>
       </c>
@@ -12853,7 +12857,7 @@
         <v>0.26050000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>59227</v>
       </c>
@@ -12879,7 +12883,7 @@
         <v>0.36980000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>59228</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>59229</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E225" s="3">
         <v>31.12</v>
@@ -12931,7 +12935,7 @@
         <v>0.38990000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>59230</v>
       </c>
@@ -12957,7 +12961,7 @@
         <v>0.60209999999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>59231</v>
       </c>
@@ -12983,7 +12987,7 @@
         <v>0.3725</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>59232</v>
       </c>
@@ -13009,7 +13013,7 @@
         <v>0.1953</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>59233</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>0.20449999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>59234</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>0.45619999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>59236</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>0.19570000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>59237</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>59238</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>0.3261</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>59239</v>
       </c>
@@ -13165,7 +13169,7 @@
         <v>0.23380000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>59240</v>
       </c>
@@ -13191,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>59241</v>
       </c>
@@ -13217,7 +13221,7 @@
         <v>0.25119999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>59242</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>59243</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>59244</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>0.2944</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>59246</v>
       </c>
@@ -13321,7 +13325,7 @@
         <v>0.2414</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>59247</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E241" s="3">
         <v>41.94</v>
@@ -13347,7 +13351,7 @@
         <v>0.40550000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>59249</v>
       </c>
@@ -13373,7 +13377,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>59250</v>
       </c>
@@ -13384,7 +13388,7 @@
         <v>9</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E243" s="3">
         <v>43.49</v>
@@ -13399,7 +13403,7 @@
         <v>0.41160000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>59251</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>0.1454</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>59252</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>9</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E245" s="4">
         <v>36</v>
@@ -13451,7 +13455,7 @@
         <v>0.32969999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>59253</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>0.75970000000000004</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>59254</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>59255</v>
       </c>
@@ -13529,7 +13533,7 @@
         <v>0.15229999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>59256</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E249" s="5">
         <v>32.200000000000003</v>
@@ -13555,7 +13559,7 @@
         <v>0.34489999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>59257</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E250" s="3">
         <v>36.83</v>
@@ -13581,7 +13585,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>59258</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E251" s="3">
         <v>40.909999999999997</v>
@@ -13607,7 +13611,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>59259</v>
       </c>
@@ -13618,7 +13622,7 @@
         <v>9</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E252" s="3">
         <v>33.130000000000003</v>
@@ -13633,7 +13637,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>59260</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>0.31190000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>59261</v>
       </c>
@@ -13685,7 +13689,7 @@
         <v>0.50970000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>59262</v>
       </c>
@@ -13711,7 +13715,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>59263</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>0.20380000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>59264</v>
       </c>
@@ -13763,7 +13767,7 @@
         <v>0.18129999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>59265</v>
       </c>
@@ -13789,7 +13793,7 @@
         <v>0.20349999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>59266</v>
       </c>
@@ -13800,7 +13804,7 @@
         <v>9</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E259" s="3">
         <v>33.79</v>
@@ -13815,7 +13819,7 @@
         <v>0.17269999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>59267</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>0.23219999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>59268</v>
       </c>
@@ -13867,7 +13871,7 @@
         <v>0.46089999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>59269</v>
       </c>
@@ -13893,7 +13897,7 @@
         <v>0.29530000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>59270</v>
       </c>
@@ -13919,7 +13923,7 @@
         <v>0.22739999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>59271</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>0.64059999999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>59272</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>0.60140000000000005</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>59273</v>
       </c>
@@ -13997,7 +14001,7 @@
         <v>0.4914</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>59274</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>0.2747</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>59275</v>
       </c>
@@ -14034,7 +14038,7 @@
         <v>9</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E268" s="5">
         <v>49.6</v>
@@ -14049,7 +14053,7 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>59276</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>0.2792</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>59277</v>
       </c>
@@ -14086,7 +14090,7 @@
         <v>9</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E270" s="3">
         <v>37.01</v>
@@ -14101,7 +14105,7 @@
         <v>0.1338</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>59278</v>
       </c>
@@ -14127,7 +14131,7 @@
         <v>0.51729999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>59279</v>
       </c>
@@ -14153,7 +14157,7 @@
         <v>0.64129999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>59280</v>
       </c>
@@ -14179,7 +14183,7 @@
         <v>0.2001</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>59281</v>
       </c>
@@ -14190,7 +14194,7 @@
         <v>9</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E274" s="3">
         <v>28.24</v>
@@ -14205,7 +14209,7 @@
         <v>0.5141</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>59282</v>
       </c>
@@ -14231,7 +14235,7 @@
         <v>0.18809999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>59283</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>0.15920000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>59284</v>
       </c>
@@ -14283,7 +14287,7 @@
         <v>0.41510000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>59285</v>
       </c>
@@ -14309,7 +14313,7 @@
         <v>0.33229999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>59286</v>
       </c>
@@ -14335,7 +14339,7 @@
         <v>0.71779999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>59287</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>59288</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>0.53080000000000005</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>59289</v>
       </c>
@@ -14413,7 +14417,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>59290</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>0.15840000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>59291</v>
       </c>
@@ -14465,7 +14469,7 @@
         <v>0.53990000000000005</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>59292</v>
       </c>
@@ -14491,7 +14495,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>59293</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>59294</v>
       </c>
@@ -14543,7 +14547,7 @@
         <v>0.1777</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>59295</v>
       </c>
@@ -14569,7 +14573,7 @@
         <v>0.4556</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>59296</v>
       </c>
@@ -14595,7 +14599,7 @@
         <v>0.23830000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>59297</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>0.25740000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>59299</v>
       </c>
@@ -14632,7 +14636,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E291" s="3">
         <v>32.64</v>
@@ -14647,7 +14651,7 @@
         <v>0.81020000000000003</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>59300</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>59301</v>
       </c>
@@ -14699,7 +14703,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>59302</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>0.54310000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>59303</v>
       </c>
@@ -14736,7 +14740,7 @@
         <v>9</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E295" s="5">
         <v>35.299999999999997</v>
@@ -14751,7 +14755,7 @@
         <v>0.51219999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>59304</v>
       </c>
@@ -14762,7 +14766,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E296" s="3">
         <v>39.380000000000003</v>
@@ -14777,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>59305</v>
       </c>
@@ -14803,7 +14807,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>59306</v>
       </c>
@@ -14829,7 +14833,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>59307</v>
       </c>
@@ -14855,7 +14859,7 @@
         <v>0.1048</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>59308</v>
       </c>
@@ -14866,7 +14870,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E300" s="3">
         <v>36.450000000000003</v>
@@ -14881,7 +14885,7 @@
         <v>0.16120000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>59309</v>
       </c>
@@ -14907,7 +14911,7 @@
         <v>0.55669999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>59310</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>0.1613</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>59311</v>
       </c>
@@ -14959,7 +14963,7 @@
         <v>0.30570000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>59312</v>
       </c>
@@ -14985,7 +14989,7 @@
         <v>0.2064</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>59313</v>
       </c>
@@ -15011,7 +15015,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>59314</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>0.44080000000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>59315</v>
       </c>
@@ -15063,7 +15067,7 @@
         <v>0.2107</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>59316</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>9</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E308" s="3">
         <v>29.51</v>
@@ -15089,7 +15093,7 @@
         <v>0.62539999999999996</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>59317</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>0.55549999999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>59318</v>
       </c>
@@ -15141,7 +15145,7 @@
         <v>0.13450000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>59319</v>
       </c>
@@ -15167,7 +15171,7 @@
         <v>0.30330000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>59320</v>
       </c>
@@ -15193,7 +15197,7 @@
         <v>0.54269999999999996</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>59321</v>
       </c>
@@ -15219,7 +15223,7 @@
         <v>0.28370000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>59322</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>59323</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E315" s="3">
         <v>31.46</v>
@@ -15271,7 +15275,7 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>59324</v>
       </c>
@@ -15297,7 +15301,7 @@
         <v>0.61460000000000004</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>59325</v>
       </c>
@@ -15308,7 +15312,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E317" s="3">
         <v>28.92</v>
@@ -15323,7 +15327,7 @@
         <v>0.15290000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>59326</v>
       </c>
@@ -15349,7 +15353,7 @@
         <v>0.3377</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>59327</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>0.39169999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>59328</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E320" s="3">
         <v>39.74</v>
@@ -15401,7 +15405,7 @@
         <v>0.94530000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>59329</v>
       </c>
@@ -15427,7 +15431,7 @@
         <v>0.2797</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>59330</v>
       </c>
@@ -15438,7 +15442,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E322" s="3">
         <v>32.26</v>
@@ -15453,7 +15457,7 @@
         <v>0.25669999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>59331</v>
       </c>
@@ -15479,7 +15483,7 @@
         <v>0.51290000000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>59332</v>
       </c>
@@ -15490,7 +15494,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E324" s="3">
         <v>28.22</v>
@@ -15505,7 +15509,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>59333</v>
       </c>
@@ -15531,7 +15535,7 @@
         <v>0.15440000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>59334</v>
       </c>
@@ -15557,7 +15561,7 @@
         <v>0.35770000000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>59335</v>
       </c>
@@ -15568,7 +15572,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E327" s="3">
         <v>31.34</v>
@@ -15583,7 +15587,7 @@
         <v>0.30790000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>59336</v>
       </c>
@@ -15609,7 +15613,7 @@
         <v>0.21859999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>59337</v>
       </c>
@@ -15635,7 +15639,7 @@
         <v>0.23810000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>59338</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>0.25990000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>59339</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E331" s="5">
         <v>31.2</v>
@@ -15687,7 +15691,7 @@
         <v>0.58450000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>59340</v>
       </c>
@@ -15698,7 +15702,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E332" s="3">
         <v>29.34</v>
@@ -15713,7 +15717,7 @@
         <v>0.45989999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>59341</v>
       </c>
@@ -15739,7 +15743,7 @@
         <v>0.2046</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>59342</v>
       </c>
@@ -15750,7 +15754,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E334" s="3">
         <v>29.08</v>
@@ -15765,7 +15769,7 @@
         <v>0.2361</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>59343</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E335" s="3">
         <v>33.19</v>
@@ -15791,7 +15795,7 @@
         <v>0.3846</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>59344</v>
       </c>
@@ -15817,7 +15821,7 @@
         <v>0.39689999999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>59345</v>
       </c>
@@ -15843,7 +15847,7 @@
         <v>0.47260000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>59346</v>
       </c>
@@ -15869,7 +15873,7 @@
         <v>0.40060000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>59347</v>
       </c>
@@ -15895,7 +15899,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>59348</v>
       </c>
@@ -15921,7 +15925,7 @@
         <v>0.19359999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>59349</v>
       </c>
@@ -15947,7 +15951,7 @@
         <v>0.31929999999999997</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>59350</v>
       </c>
@@ -15973,7 +15977,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>59351</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>0.25259999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>59352</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E344" s="3">
         <v>39.92</v>
@@ -16025,7 +16029,7 @@
         <v>0.58150000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>59353</v>
       </c>
@@ -16051,7 +16055,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>59354</v>
       </c>
@@ -16077,7 +16081,7 @@
         <v>0.29530000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>59356</v>
       </c>
@@ -16088,7 +16092,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E347" s="3">
         <v>45.05</v>
@@ -16103,7 +16107,7 @@
         <v>0.4456</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>59357</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>0.1905</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>59358</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>59359</v>
       </c>
@@ -16181,7 +16185,7 @@
         <v>0.41870000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>59360</v>
       </c>
@@ -16207,7 +16211,7 @@
         <v>0.51680000000000004</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>59361</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>59363</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>0.14779999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>59364</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E354" s="3">
         <v>47.61</v>
@@ -16285,7 +16289,7 @@
         <v>0.23860000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>59365</v>
       </c>
@@ -16311,7 +16315,7 @@
         <v>0.53669999999999995</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>59366</v>
       </c>
@@ -16337,7 +16341,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>59367</v>
       </c>
@@ -16348,7 +16352,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E357" s="3">
         <v>29.07</v>
@@ -16363,7 +16367,7 @@
         <v>0.55769999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>59368</v>
       </c>
@@ -16374,7 +16378,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E358" s="5">
         <v>36.200000000000003</v>
@@ -16389,7 +16393,7 @@
         <v>0.5726</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>59369</v>
       </c>
@@ -16415,7 +16419,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>59370</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>0.29880000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>59371</v>
       </c>
@@ -16452,7 +16456,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E361" s="3">
         <v>44.99</v>
@@ -16467,7 +16471,7 @@
         <v>0.3175</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>59372</v>
       </c>
@@ -16493,7 +16497,7 @@
         <v>0.22120000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>59374</v>
       </c>
@@ -16519,7 +16523,7 @@
         <v>0.1908</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>59375</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>0.73129999999999995</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>59377</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>59378</v>
       </c>
@@ -16582,7 +16586,7 @@
         <v>9</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E366" s="3">
         <v>42.07</v>
@@ -16597,7 +16601,7 @@
         <v>0.87170000000000003</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>59379</v>
       </c>
@@ -16623,7 +16627,7 @@
         <v>0.23069999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>59381</v>
       </c>
@@ -16634,7 +16638,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E368" s="3">
         <v>30.66</v>
@@ -16649,7 +16653,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>59382</v>
       </c>
@@ -16675,7 +16679,7 @@
         <v>0.32119999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>59383</v>
       </c>
@@ -16701,7 +16705,7 @@
         <v>0.4199</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>59384</v>
       </c>
@@ -16727,7 +16731,7 @@
         <v>0.29670000000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>59385</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>0.35630000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>59386</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E373" s="3">
         <v>34.17</v>
@@ -16779,7 +16783,7 @@
         <v>0.65049999999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>59387</v>
       </c>
@@ -16805,7 +16809,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>59388</v>
       </c>
@@ -16816,7 +16820,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E375" s="3">
         <v>30.72</v>
@@ -16831,7 +16835,7 @@
         <v>0.46029999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>59389</v>
       </c>
@@ -16857,7 +16861,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>59390</v>
       </c>
@@ -16883,7 +16887,7 @@
         <v>0.44450000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>59391</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>59392</v>
       </c>
@@ -16935,7 +16939,7 @@
         <v>0.76580000000000004</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>59393</v>
       </c>
@@ -16961,7 +16965,7 @@
         <v>0.38429999999999997</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>59394</v>
       </c>
@@ -16987,7 +16991,7 @@
         <v>0.4481</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>59395</v>
       </c>
@@ -17013,7 +17017,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>59396</v>
       </c>
@@ -17039,7 +17043,7 @@
         <v>0.21460000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>59397</v>
       </c>
@@ -17065,7 +17069,7 @@
         <v>0.23330000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>59398</v>
       </c>
@@ -17076,7 +17080,7 @@
         <v>9</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E385" s="3">
         <v>47.58</v>
@@ -17091,7 +17095,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>59399</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>9</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E386" s="3">
         <v>31.68</v>
@@ -17117,7 +17121,7 @@
         <v>0.21590000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>59400</v>
       </c>
@@ -17143,7 +17147,7 @@
         <v>0.38890000000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>59401</v>
       </c>
@@ -17154,7 +17158,7 @@
         <v>9</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E388" s="3">
         <v>34.58</v>
@@ -17169,7 +17173,7 @@
         <v>0.16839999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>59402</v>
       </c>
@@ -17195,7 +17199,7 @@
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>59403</v>
       </c>
@@ -17206,7 +17210,7 @@
         <v>9</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E390" s="3">
         <v>28.38</v>
@@ -17221,7 +17225,7 @@
         <v>0.4793</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>59405</v>
       </c>
@@ -17247,7 +17251,7 @@
         <v>0.3926</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>59406</v>
       </c>
@@ -17273,7 +17277,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>59407</v>
       </c>
@@ -17299,7 +17303,7 @@
         <v>0.3553</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>59408</v>
       </c>
@@ -17310,7 +17314,7 @@
         <v>9</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E394" s="3">
         <v>34.659999999999997</v>
@@ -17325,7 +17329,7 @@
         <v>0.29509999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>59409</v>
       </c>
@@ -17351,7 +17355,7 @@
         <v>0.3569</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>59410</v>
       </c>
@@ -17377,7 +17381,7 @@
         <v>0.38190000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>59411</v>
       </c>
@@ -17388,7 +17392,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E397" s="3">
         <v>36.81</v>
@@ -17403,7 +17407,7 @@
         <v>0.2545</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>59412</v>
       </c>
@@ -17429,7 +17433,7 @@
         <v>0.33339999999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>59413</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>0.23960000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>59414</v>
       </c>
@@ -17481,7 +17485,7 @@
         <v>0.43730000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>59415</v>
       </c>
@@ -17507,7 +17511,7 @@
         <v>0.28589999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>59416</v>
       </c>
@@ -17533,7 +17537,7 @@
         <v>0.24929999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>59418</v>
       </c>
@@ -17559,7 +17563,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>59419</v>
       </c>
@@ -17570,7 +17574,7 @@
         <v>9</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E404" s="3">
         <v>34.880000000000003</v>
@@ -17585,7 +17589,7 @@
         <v>0.27450000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>59420</v>
       </c>
@@ -17611,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>59421</v>
       </c>
@@ -17622,7 +17626,7 @@
         <v>9</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E406" s="3">
         <v>44.37</v>
@@ -17637,7 +17641,7 @@
         <v>0.95020000000000004</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>59422</v>
       </c>
@@ -17663,7 +17667,7 @@
         <v>0.15359999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>59423</v>
       </c>
@@ -17689,7 +17693,7 @@
         <v>0.28589999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>59424</v>
       </c>
@@ -17715,7 +17719,7 @@
         <v>0.55089999999999995</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>59425</v>
       </c>
@@ -17741,7 +17745,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>59426</v>
       </c>
@@ -17752,7 +17756,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E411" s="5">
         <v>34.200000000000003</v>
@@ -17767,7 +17771,7 @@
         <v>0.41349999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>59427</v>
       </c>
@@ -17778,7 +17782,7 @@
         <v>9</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E412" s="3">
         <v>34.51</v>
@@ -17793,7 +17797,7 @@
         <v>0.16039999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>59428</v>
       </c>
@@ -17819,7 +17823,7 @@
         <v>0.32769999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>59429</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>0.2107</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>59430</v>
       </c>
@@ -17871,7 +17875,7 @@
         <v>0.28079999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>59431</v>
       </c>
@@ -17897,7 +17901,7 @@
         <v>0.56969999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>59432</v>
       </c>
@@ -17908,7 +17912,7 @@
         <v>9</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E417" s="3">
         <v>31.59</v>
@@ -17923,7 +17927,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>59433</v>
       </c>
@@ -17949,7 +17953,7 @@
         <v>0.23089999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>59434</v>
       </c>
@@ -17975,7 +17979,7 @@
         <v>0.42430000000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>59435</v>
       </c>
@@ -17986,7 +17990,7 @@
         <v>9</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E420" s="3">
         <v>36.53</v>
@@ -18001,7 +18005,7 @@
         <v>0.26050000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>59436</v>
       </c>
@@ -18027,7 +18031,7 @@
         <v>0.11409999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>59437</v>
       </c>
@@ -18038,7 +18042,7 @@
         <v>9</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E422" s="3">
         <v>38.049999999999997</v>
@@ -18053,7 +18057,7 @@
         <v>0.33679999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>59438</v>
       </c>
@@ -18079,7 +18083,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>59439</v>
       </c>
@@ -18105,7 +18109,7 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>59440</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>0.30530000000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>59441</v>
       </c>
@@ -18142,7 +18146,7 @@
         <v>9</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E426" s="3">
         <v>32.74</v>
@@ -18157,7 +18161,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>59442</v>
       </c>
@@ -18183,7 +18187,7 @@
         <v>0.1696</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>59443</v>
       </c>
@@ -18209,7 +18213,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>59444</v>
       </c>
@@ -18235,7 +18239,7 @@
         <v>0.23949999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>59445</v>
       </c>
@@ -18261,7 +18265,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>59446</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>59447</v>
       </c>
@@ -18313,7 +18317,7 @@
         <v>0.41139999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>59448</v>
       </c>
@@ -18339,7 +18343,7 @@
         <v>0.38579999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>59449</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>0.44290000000000002</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>59450</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>0.24310000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>59451</v>
       </c>
@@ -18402,7 +18406,7 @@
         <v>9</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E436" s="3">
         <v>29.14</v>
@@ -18417,7 +18421,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>59452</v>
       </c>
@@ -18443,7 +18447,7 @@
         <v>0.33710000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>59453</v>
       </c>
@@ -18469,7 +18473,7 @@
         <v>0.1401</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>59454</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E439" s="3">
         <v>33.869999999999997</v>
@@ -18495,7 +18499,7 @@
         <v>0.23419999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>59455</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>0.25119999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>59456</v>
       </c>
@@ -18547,7 +18551,7 @@
         <v>0.4733</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>59457</v>
       </c>
@@ -18558,7 +18562,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E442" s="3">
         <v>29.54</v>
@@ -18573,7 +18577,7 @@
         <v>0.47939999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>59458</v>
       </c>
@@ -18584,7 +18588,7 @@
         <v>9</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E443" s="3">
         <v>36.28</v>
@@ -18599,7 +18603,7 @@
         <v>0.43869999999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>59459</v>
       </c>
@@ -18625,7 +18629,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>59461</v>
       </c>
@@ -18651,7 +18655,7 @@
         <v>0.22450000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>59462</v>
       </c>
@@ -18662,7 +18666,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E446" s="3">
         <v>36.049999999999997</v>
@@ -18677,7 +18681,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>59463</v>
       </c>
@@ -18703,7 +18707,7 @@
         <v>0.3054</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>59464</v>
       </c>
@@ -18729,7 +18733,7 @@
         <v>0.28989999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>59465</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>0.28970000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>59466</v>
       </c>
@@ -18766,7 +18770,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E450" s="3">
         <v>34.78</v>
@@ -18781,7 +18785,7 @@
         <v>0.2505</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>59467</v>
       </c>
@@ -18807,7 +18811,7 @@
         <v>0.33429999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>59468</v>
       </c>
@@ -18818,7 +18822,7 @@
         <v>9</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E452" s="3">
         <v>29.12</v>
@@ -18833,7 +18837,7 @@
         <v>0.1386</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>59469</v>
       </c>
@@ -18859,7 +18863,7 @@
         <v>0.2445</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>59470</v>
       </c>
@@ -18870,7 +18874,7 @@
         <v>9</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E454" s="3">
         <v>37.229999999999997</v>
@@ -18885,7 +18889,7 @@
         <v>0.40429999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>59471</v>
       </c>
@@ -18911,7 +18915,7 @@
         <v>0.41720000000000002</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>59472</v>
       </c>
@@ -18937,7 +18941,7 @@
         <v>0.33029999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>59473</v>
       </c>
@@ -18963,7 +18967,7 @@
         <v>0.14080000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>59474</v>
       </c>
@@ -18989,7 +18993,7 @@
         <v>0.25669999999999998</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>59475</v>
       </c>
@@ -19015,7 +19019,7 @@
         <v>0.28510000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>59476</v>
       </c>
@@ -19041,7 +19045,7 @@
         <v>0.40639999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>59477</v>
       </c>
@@ -19067,7 +19071,7 @@
         <v>0.37290000000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>59478</v>
       </c>
@@ -19093,7 +19097,7 @@
         <v>0.20760000000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>59479</v>
       </c>
@@ -19119,7 +19123,7 @@
         <v>0.29809999999999998</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>59480</v>
       </c>
@@ -19145,7 +19149,7 @@
         <v>0.26419999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>59481</v>
       </c>
@@ -19171,7 +19175,7 @@
         <v>0.60960000000000003</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>59482</v>
       </c>
@@ -19182,7 +19186,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E466" s="3">
         <v>35.65</v>
@@ -19197,7 +19201,7 @@
         <v>0.55269999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>59483</v>
       </c>
@@ -19223,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>59484</v>
       </c>
@@ -19249,7 +19253,7 @@
         <v>0.56059999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>59485</v>
       </c>
@@ -19275,7 +19279,7 @@
         <v>0.33879999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>59486</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>0.38350000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>59487</v>
       </c>
@@ -19312,7 +19316,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E471" s="3">
         <v>43.72</v>
@@ -19327,7 +19331,7 @@
         <v>0.26719999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>59488</v>
       </c>
@@ -19353,7 +19357,7 @@
         <v>0.25969999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>59489</v>
       </c>
@@ -19379,7 +19383,7 @@
         <v>0.39250000000000002</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>59490</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>0.1608</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>59491</v>
       </c>
@@ -19431,7 +19435,7 @@
         <v>0.56679999999999997</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>59492</v>
       </c>
@@ -19457,7 +19461,7 @@
         <v>0.49320000000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>59493</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>59494</v>
       </c>
@@ -19509,7 +19513,7 @@
         <v>0.17230000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>59495</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>0.40029999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>59496</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>0.1978</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>59497</v>
       </c>
@@ -19587,7 +19591,7 @@
         <v>0.13139999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>59498</v>
       </c>
@@ -19613,7 +19617,7 @@
         <v>0.37290000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>59499</v>
       </c>
@@ -19639,7 +19643,7 @@
         <v>0.35020000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>59500</v>
       </c>
@@ -19665,7 +19669,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>59501</v>
       </c>
@@ -19691,7 +19695,7 @@
         <v>0.61360000000000003</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>59502</v>
       </c>
@@ -19717,7 +19721,7 @@
         <v>0.19670000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>59503</v>
       </c>
@@ -19743,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>59504</v>
       </c>
@@ -19769,7 +19773,7 @@
         <v>0.3145</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>59505</v>
       </c>
@@ -19795,7 +19799,7 @@
         <v>0.21390000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>59506</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>0.2422</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>59507</v>
       </c>
@@ -19847,7 +19851,7 @@
         <v>0.56289999999999996</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>59508</v>
       </c>
@@ -19858,7 +19862,7 @@
         <v>9</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E492" s="3">
         <v>35.92</v>
@@ -19873,7 +19877,7 @@
         <v>0.72989999999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>59509</v>
       </c>
@@ -19899,7 +19903,7 @@
         <v>0.3543</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>59511</v>
       </c>
@@ -19910,7 +19914,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E494" s="3">
         <v>30.97</v>
@@ -19925,7 +19929,7 @@
         <v>0.33310000000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>59512</v>
       </c>
@@ -19951,7 +19955,7 @@
         <v>0.78029999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>59513</v>
       </c>
@@ -19977,7 +19981,7 @@
         <v>0.20180000000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>59514</v>
       </c>
@@ -20003,7 +20007,7 @@
         <v>0.48049999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>59515</v>
       </c>
@@ -20029,7 +20033,7 @@
         <v>0.1449</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>59516</v>
       </c>
@@ -20040,7 +20044,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E499" s="3">
         <v>31.88</v>
@@ -20055,7 +20059,7 @@
         <v>0.2046</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>59517</v>
       </c>
@@ -20081,7 +20085,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>59518</v>
       </c>
@@ -20107,7 +20111,7 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>59519</v>
       </c>
@@ -20133,7 +20137,7 @@
         <v>0.3105</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>59520</v>
       </c>
@@ -20159,7 +20163,7 @@
         <v>0.25750000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>59521</v>
       </c>
@@ -20185,7 +20189,7 @@
         <v>0.2278</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>59522</v>
       </c>
@@ -20196,7 +20200,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E505" s="3">
         <v>46.52</v>
@@ -20211,7 +20215,7 @@
         <v>0.53639999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>59523</v>
       </c>
@@ -20222,7 +20226,7 @@
         <v>9</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E506" s="3">
         <v>41.18</v>
@@ -20237,7 +20241,7 @@
         <v>0.3795</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>59524</v>
       </c>
@@ -20248,7 +20252,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E507" s="3">
         <v>31.18</v>
@@ -20263,7 +20267,7 @@
         <v>0.49180000000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>59525</v>
       </c>
@@ -20289,7 +20293,7 @@
         <v>0.36259999999999998</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>59526</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>59527</v>
       </c>
@@ -20326,7 +20330,7 @@
         <v>9</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E510" s="3">
         <v>35.159999999999997</v>
@@ -20341,7 +20345,7 @@
         <v>0.7762</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>59528</v>
       </c>
@@ -20367,7 +20371,7 @@
         <v>0.2157</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>59529</v>
       </c>
@@ -20393,7 +20397,7 @@
         <v>0.19009999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>59530</v>
       </c>
@@ -20419,7 +20423,7 @@
         <v>0.2455</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>59531</v>
       </c>
@@ -20445,7 +20449,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>59532</v>
       </c>
@@ -20471,7 +20475,7 @@
         <v>0.3695</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>59533</v>
       </c>
@@ -20497,7 +20501,7 @@
         <v>0.27960000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>59534</v>
       </c>
@@ -20523,7 +20527,7 @@
         <v>0.31290000000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>59535</v>
       </c>
@@ -20534,7 +20538,7 @@
         <v>9</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E518" s="5">
         <v>36.6</v>
@@ -20549,7 +20553,7 @@
         <v>0.19839999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>59536</v>
       </c>
@@ -20560,7 +20564,7 @@
         <v>9</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E519" s="3">
         <v>33.96</v>
@@ -20575,7 +20579,7 @@
         <v>0.31030000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>59537</v>
       </c>
@@ -20586,7 +20590,7 @@
         <v>9</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E520" s="3">
         <v>26.81</v>
@@ -20601,7 +20605,7 @@
         <v>0.21160000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>59538</v>
       </c>
@@ -20627,7 +20631,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>59539</v>
       </c>
@@ -20653,7 +20657,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>59541</v>
       </c>
@@ -20679,7 +20683,7 @@
         <v>0.26879999999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>59542</v>
       </c>
@@ -20705,7 +20709,7 @@
         <v>0.20180000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>59543</v>
       </c>
@@ -20731,7 +20735,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>59544</v>
       </c>
@@ -20757,7 +20761,7 @@
         <v>0.53129999999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>59545</v>
       </c>
@@ -20783,7 +20787,7 @@
         <v>0.41010000000000002</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>59546</v>
       </c>
@@ -20809,7 +20813,7 @@
         <v>0.1799</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>59547</v>
       </c>
@@ -20835,7 +20839,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>59548</v>
       </c>
@@ -20861,7 +20865,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>59549</v>
       </c>
@@ -20887,7 +20891,7 @@
         <v>0.21110000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>59550</v>
       </c>
@@ -20913,7 +20917,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>59551</v>
       </c>
@@ -20924,7 +20928,7 @@
         <v>9</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E533" s="3">
         <v>36.380000000000003</v>
@@ -20939,7 +20943,7 @@
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>59552</v>
       </c>
@@ -20965,7 +20969,7 @@
         <v>0.27510000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>59553</v>
       </c>
@@ -20976,7 +20980,7 @@
         <v>9</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E535" s="3">
         <v>35.92</v>
@@ -20991,7 +20995,7 @@
         <v>0.57240000000000002</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>59554</v>
       </c>
@@ -21002,7 +21006,7 @@
         <v>9</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E536" s="3">
         <v>33.97</v>
@@ -21017,7 +21021,7 @@
         <v>0.2291</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>59555</v>
       </c>
@@ -21043,7 +21047,7 @@
         <v>0.48849999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>59556</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>0.2046</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>59557</v>
       </c>
@@ -21095,7 +21099,7 @@
         <v>0.31540000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>59558</v>
       </c>
@@ -21121,7 +21125,7 @@
         <v>0.33110000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>59559</v>
       </c>
@@ -21132,7 +21136,7 @@
         <v>9</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E541" s="3">
         <v>32.33</v>
@@ -21147,7 +21151,7 @@
         <v>0.40029999999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>59560</v>
       </c>
@@ -21173,7 +21177,7 @@
         <v>0.50529999999999997</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>59562</v>
       </c>
@@ -21199,7 +21203,7 @@
         <v>0.20710000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>59563</v>
       </c>
@@ -21225,7 +21229,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>59564</v>
       </c>
@@ -21251,7 +21255,7 @@
         <v>0.3503</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>59565</v>
       </c>
@@ -21277,7 +21281,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>59566</v>
       </c>
@@ -21288,7 +21292,7 @@
         <v>9</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E547" s="3">
         <v>36.47</v>
@@ -21303,7 +21307,7 @@
         <v>0.2712</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>59567</v>
       </c>
@@ -21329,7 +21333,7 @@
         <v>0.2331</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>59568</v>
       </c>
@@ -21340,7 +21344,7 @@
         <v>9</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E549" s="3">
         <v>35.130000000000003</v>
@@ -21355,7 +21359,7 @@
         <v>0.12239999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>59569</v>
       </c>
@@ -21381,7 +21385,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>59570</v>
       </c>
@@ -21392,7 +21396,7 @@
         <v>9</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E551" s="3">
         <v>41.22</v>
@@ -21407,7 +21411,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>59571</v>
       </c>
@@ -21433,7 +21437,7 @@
         <v>0.55669999999999997</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>59572</v>
       </c>
@@ -21459,7 +21463,7 @@
         <v>0.41389999999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>59573</v>
       </c>
@@ -21485,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>59574</v>
       </c>
@@ -21511,7 +21515,7 @@
         <v>0.49630000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>59575</v>
       </c>
@@ -21537,7 +21541,7 @@
         <v>0.18090000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>59576</v>
       </c>
@@ -21563,7 +21567,7 @@
         <v>0.31330000000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>59577</v>
       </c>
@@ -21574,7 +21578,7 @@
         <v>9</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E558" s="3">
         <v>32.29</v>
@@ -21589,7 +21593,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>59578</v>
       </c>
@@ -21615,7 +21619,7 @@
         <v>0.18529999999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>59579</v>
       </c>
@@ -21641,7 +21645,7 @@
         <v>0.39629999999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>59580</v>
       </c>
@@ -21652,7 +21656,7 @@
         <v>9</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E561" s="3">
         <v>30.88</v>
@@ -21667,7 +21671,7 @@
         <v>0.24049999999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>59581</v>
       </c>
@@ -21678,7 +21682,7 @@
         <v>9</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E562" s="3">
         <v>29.82</v>
@@ -21693,7 +21697,7 @@
         <v>0.38940000000000002</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>59582</v>
       </c>
@@ -21719,7 +21723,7 @@
         <v>0.1862</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>59583</v>
       </c>
@@ -21745,7 +21749,7 @@
         <v>0.31879999999999997</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>59584</v>
       </c>
@@ -21771,7 +21775,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>59585</v>
       </c>
@@ -21782,7 +21786,7 @@
         <v>9</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E566" s="3">
         <v>31.16</v>
@@ -21797,7 +21801,7 @@
         <v>0.4123</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>59586</v>
       </c>
@@ -21808,7 +21812,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E567" s="3">
         <v>35.03</v>
@@ -21823,7 +21827,7 @@
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>59587</v>
       </c>
@@ -21834,7 +21838,7 @@
         <v>9</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E568" s="3">
         <v>32.75</v>
@@ -21849,7 +21853,7 @@
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>59588</v>
       </c>
@@ -21860,7 +21864,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E569" s="3">
         <v>33.92</v>
@@ -21875,7 +21879,7 @@
         <v>0.4526</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>59589</v>
       </c>
@@ -21901,7 +21905,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>59590</v>
       </c>
@@ -21927,7 +21931,7 @@
         <v>0.15210000000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>59591</v>
       </c>
@@ -21953,7 +21957,7 @@
         <v>0.34789999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>59592</v>
       </c>
@@ -21979,7 +21983,7 @@
         <v>0.44850000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>59593</v>
       </c>
@@ -22005,7 +22009,7 @@
         <v>0.35189999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>59594</v>
       </c>
@@ -22031,7 +22035,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>59595</v>
       </c>
@@ -22057,7 +22061,7 @@
         <v>0.24229999999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>59596</v>
       </c>
@@ -22068,7 +22072,7 @@
         <v>9</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E577" s="5">
         <v>31.5</v>
@@ -22083,7 +22087,7 @@
         <v>0.2432</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>59597</v>
       </c>
@@ -22094,7 +22098,7 @@
         <v>9</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E578" s="4">
         <v>36</v>
@@ -22109,7 +22113,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>59598</v>
       </c>
@@ -22120,7 +22124,7 @@
         <v>9</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E579" s="3">
         <v>32.08</v>
@@ -22135,7 +22139,7 @@
         <v>0.42270000000000002</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>59599</v>
       </c>
@@ -22161,7 +22165,7 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>59600</v>
       </c>
@@ -22172,7 +22176,7 @@
         <v>9</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E581" s="3">
         <v>35.93</v>
@@ -22187,7 +22191,7 @@
         <v>0.2303</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>59601</v>
       </c>
@@ -22213,7 +22217,7 @@
         <v>0.70220000000000005</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>59602</v>
       </c>
@@ -22224,7 +22228,7 @@
         <v>9</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E583" s="5">
         <v>40.4</v>
@@ -22239,7 +22243,7 @@
         <v>0.53210000000000002</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>59603</v>
       </c>
@@ -22265,7 +22269,7 @@
         <v>0.29310000000000003</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>59604</v>
       </c>
@@ -22291,7 +22295,7 @@
         <v>0.34770000000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>59605</v>
       </c>
@@ -22302,7 +22306,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E586" s="5">
         <v>32.299999999999997</v>
@@ -22317,7 +22321,7 @@
         <v>0.2223</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>59606</v>
       </c>
@@ -22328,7 +22332,7 @@
         <v>9</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E587" s="3">
         <v>28.95</v>
@@ -22343,7 +22347,7 @@
         <v>0.78779999999999994</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>59607</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>0.1595</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>59608</v>
       </c>
@@ -22395,7 +22399,7 @@
         <v>0.21629999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>59609</v>
       </c>
@@ -22406,7 +22410,7 @@
         <v>9</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E590" s="3">
         <v>36.68</v>
@@ -22421,7 +22425,7 @@
         <v>0.45319999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>59610</v>
       </c>
@@ -22447,7 +22451,7 @@
         <v>0.26129999999999998</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>59611</v>
       </c>
@@ -22458,7 +22462,7 @@
         <v>9</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E592" s="3">
         <v>44.28</v>
@@ -22473,7 +22477,7 @@
         <v>0.53590000000000004</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>59612</v>
       </c>
@@ -22499,7 +22503,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>59613</v>
       </c>
@@ -22525,7 +22529,7 @@
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>59614</v>
       </c>
@@ -22551,7 +22555,7 @@
         <v>0.1862</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>59615</v>
       </c>
@@ -22577,7 +22581,7 @@
         <v>0.2127</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>59616</v>
       </c>
@@ -22603,7 +22607,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>59617</v>
       </c>
@@ -22629,7 +22633,7 @@
         <v>0.22020000000000001</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>59618</v>
       </c>
@@ -22655,7 +22659,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>59619</v>
       </c>
@@ -22681,7 +22685,7 @@
         <v>0.15579999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>59620</v>
       </c>
@@ -22707,7 +22711,7 @@
         <v>0.17150000000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>59622</v>
       </c>
@@ -22733,7 +22737,7 @@
         <v>0.2089</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>59623</v>
       </c>
@@ -22759,7 +22763,7 @@
         <v>0.2155</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>59624</v>
       </c>
@@ -22785,7 +22789,7 @@
         <v>0.2082</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>59625</v>
       </c>
@@ -22811,7 +22815,7 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>59626</v>
       </c>
@@ -22822,7 +22826,7 @@
         <v>9</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E606" s="3">
         <v>37.909999999999997</v>
@@ -22837,7 +22841,7 @@
         <v>0.23069999999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>59627</v>
       </c>
@@ -22863,7 +22867,7 @@
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>59628</v>
       </c>
@@ -22889,7 +22893,7 @@
         <v>0.25819999999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>59629</v>
       </c>
@@ -22915,7 +22919,7 @@
         <v>0.3906</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>59630</v>
       </c>
@@ -22941,7 +22945,7 @@
         <v>0.37969999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>59631</v>
       </c>
@@ -22967,7 +22971,7 @@
         <v>0.36159999999999998</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>59632</v>
       </c>
@@ -22993,7 +22997,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>59633</v>
       </c>
@@ -23019,7 +23023,7 @@
         <v>0.1421</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>59634</v>
       </c>
@@ -23030,7 +23034,7 @@
         <v>9</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E614" s="3">
         <v>38.76</v>
@@ -23045,7 +23049,7 @@
         <v>0.17230000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>59635</v>
       </c>
@@ -23071,7 +23075,7 @@
         <v>0.26569999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>59636</v>
       </c>
@@ -23082,7 +23086,7 @@
         <v>9</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E616" s="5">
         <v>39.299999999999997</v>
@@ -23097,7 +23101,7 @@
         <v>0.6714</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>59637</v>
       </c>
@@ -23123,7 +23127,7 @@
         <v>0.42959999999999998</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>59638</v>
       </c>
@@ -23134,7 +23138,7 @@
         <v>9</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E618" s="3">
         <v>29.23</v>
@@ -23149,7 +23153,7 @@
         <v>0.27910000000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>59639</v>
       </c>
@@ -23175,7 +23179,7 @@
         <v>0.2868</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>59640</v>
       </c>
@@ -23201,7 +23205,7 @@
         <v>0.2044</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>59641</v>
       </c>
@@ -23227,7 +23231,7 @@
         <v>0.2737</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>59642</v>
       </c>
@@ -23238,7 +23242,7 @@
         <v>9</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E622" s="5">
         <v>30.9</v>
@@ -23253,7 +23257,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>59643</v>
       </c>
@@ -23264,7 +23268,7 @@
         <v>9</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E623" s="3">
         <v>33.770000000000003</v>
@@ -23279,7 +23283,7 @@
         <v>0.38490000000000002</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>59645</v>
       </c>
@@ -23305,7 +23309,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>59646</v>
       </c>
@@ -23316,7 +23320,7 @@
         <v>9</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E625" s="3">
         <v>37.25</v>
@@ -23331,7 +23335,7 @@
         <v>0.75980000000000003</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>59647</v>
       </c>
@@ -23357,7 +23361,7 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>59648</v>
       </c>
@@ -23368,7 +23372,7 @@
         <v>9</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E627" s="3">
         <v>30.28</v>
@@ -23383,7 +23387,7 @@
         <v>0.73050000000000004</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>59649</v>
       </c>
@@ -23394,7 +23398,7 @@
         <v>9</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E628" s="5">
         <v>33.9</v>
@@ -23409,7 +23413,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>59650</v>
       </c>
@@ -23435,7 +23439,7 @@
         <v>0.71689999999999998</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>59651</v>
       </c>
@@ -23461,7 +23465,7 @@
         <v>0.58350000000000002</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>59652</v>
       </c>
@@ -23487,7 +23491,7 @@
         <v>0.1905</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>59653</v>
       </c>
@@ -23513,7 +23517,7 @@
         <v>0.51380000000000003</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>59654</v>
       </c>
@@ -23539,7 +23543,7 @@
         <v>0.54349999999999998</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>59655</v>
       </c>
@@ -23565,7 +23569,7 @@
         <v>0.24790000000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>59656</v>
       </c>
@@ -23576,7 +23580,7 @@
         <v>9</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E635" s="3">
         <v>33.619999999999997</v>
@@ -23591,7 +23595,7 @@
         <v>0.61970000000000003</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>59657</v>
       </c>
@@ -23617,7 +23621,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>59658</v>
       </c>
@@ -23628,7 +23632,7 @@
         <v>9</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E637" s="3">
         <v>30.13</v>
@@ -23643,7 +23647,7 @@
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>59659</v>
       </c>
@@ -23669,7 +23673,7 @@
         <v>0.48259999999999997</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>59660</v>
       </c>
@@ -23680,7 +23684,7 @@
         <v>9</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E639" s="3">
         <v>33.08</v>
@@ -23695,7 +23699,7 @@
         <v>0.57250000000000001</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>59661</v>
       </c>
@@ -23721,7 +23725,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>59662</v>
       </c>
@@ -23747,7 +23751,7 @@
         <v>0.1128</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>59663</v>
       </c>
@@ -23773,7 +23777,7 @@
         <v>0.37340000000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>59664</v>
       </c>
@@ -23799,7 +23803,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>59665</v>
       </c>
@@ -23825,7 +23829,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>59666</v>
       </c>
@@ -23851,7 +23855,7 @@
         <v>0.29160000000000003</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>59667</v>
       </c>
@@ -23877,7 +23881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>59668</v>
       </c>
@@ -23888,7 +23892,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E647" s="3">
         <v>29.69</v>
@@ -23903,7 +23907,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>59669</v>
       </c>
@@ -23929,7 +23933,7 @@
         <v>0.18690000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>59670</v>
       </c>
@@ -23940,7 +23944,7 @@
         <v>9</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E649" s="3">
         <v>30.11</v>
